--- a/ResourceFiles/Trey Research Year-End Survey Results.xlsx
+++ b/ResourceFiles/Trey Research Year-End Survey Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tfrink_microsoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tfrink_microsoft_com/Documents/MS-4004 lab files/Reused files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="35" documentId="8_{A67DEB53-24C8-4E97-9CAC-F18813D358A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A4793CD-C669-42AD-AAF9-1AF6FCA5F743}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA697227-04ED-4046-8A92-7F14BC4DE80D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA697227-04ED-4046-8A92-7F14BC4DE80D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,10 +231,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,6 +909,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{87867195-f2b8-4ac2-b0b6-6bb73cb33afc}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
 </clbl:labelList>
 </file>